--- a/artfynd/A 30548-2019.xlsx
+++ b/artfynd/A 30548-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79930407</v>
+        <v>79930402</v>
       </c>
       <c r="B3" t="n">
-        <v>76504</v>
+        <v>89557</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>314</v>
+        <v>1588</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>400891.1128622342</v>
+        <v>400486.0196595828</v>
       </c>
       <c r="R3" t="n">
-        <v>6751229.963137357</v>
+        <v>6751207.17080476</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79930405</v>
+        <v>79930409</v>
       </c>
       <c r="B4" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>400891.1128622342</v>
+        <v>400637.2251421487</v>
       </c>
       <c r="R4" t="n">
-        <v>6751229.963137357</v>
+        <v>6751170.796163691</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79930402</v>
+        <v>79930410</v>
       </c>
       <c r="B5" t="n">
-        <v>89557</v>
+        <v>85703</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1588</v>
+        <v>510</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>400486.0196595828</v>
+        <v>400228.82899852</v>
       </c>
       <c r="R5" t="n">
-        <v>6751207.17080476</v>
+        <v>6751134.972044618</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79930409</v>
+        <v>79930407</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>76504</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>314</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>400637.2251421487</v>
+        <v>400891.1128622342</v>
       </c>
       <c r="R6" t="n">
-        <v>6751170.796163691</v>
+        <v>6751229.963137357</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79930410</v>
+        <v>79930405</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>73693</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>400228.82899852</v>
+        <v>400891.1128622342</v>
       </c>
       <c r="R7" t="n">
-        <v>6751134.972044618</v>
+        <v>6751229.963137357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 30548-2019.xlsx
+++ b/artfynd/A 30548-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79930402</v>
+        <v>79930407</v>
       </c>
       <c r="B3" t="n">
-        <v>89557</v>
+        <v>76504</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1588</v>
+        <v>314</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>400486.0196595828</v>
+        <v>400891.1128622342</v>
       </c>
       <c r="R3" t="n">
-        <v>6751207.17080476</v>
+        <v>6751229.963137357</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79930409</v>
+        <v>79930405</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>400637.2251421487</v>
+        <v>400891.1128622342</v>
       </c>
       <c r="R4" t="n">
-        <v>6751170.796163691</v>
+        <v>6751229.963137357</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79930410</v>
+        <v>79930402</v>
       </c>
       <c r="B5" t="n">
-        <v>85703</v>
+        <v>89557</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>510</v>
+        <v>1588</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>400228.82899852</v>
+        <v>400486.0196595828</v>
       </c>
       <c r="R5" t="n">
-        <v>6751134.972044618</v>
+        <v>6751207.17080476</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79930407</v>
+        <v>79930409</v>
       </c>
       <c r="B6" t="n">
-        <v>76504</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>400891.1128622342</v>
+        <v>400637.2251421487</v>
       </c>
       <c r="R6" t="n">
-        <v>6751229.963137357</v>
+        <v>6751170.796163691</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79930405</v>
+        <v>79930410</v>
       </c>
       <c r="B7" t="n">
-        <v>73693</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>400891.1128622342</v>
+        <v>400228.82899852</v>
       </c>
       <c r="R7" t="n">
-        <v>6751229.963137357</v>
+        <v>6751134.972044618</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
